--- a/inputfiles/Pine8th/6PPDQ_CHEMSUMM.xlsx
+++ b/inputfiles/Pine8th/6PPDQ_CHEMSUMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBC782-6A7E-4CD1-BDB6-C3F51693978A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9245FFC2-3E12-47A7-AC85-36E687CF3BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputfiles/Pine8th/6PPDQ_CHEMSUMM.xlsx
+++ b/inputfiles/Pine8th/6PPDQ_CHEMSUMM.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBC782-6A7E-4CD1-BDB6-C3F51693978A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9190EC0D-FB26-4172-9FC8-B948E001ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPECHEMSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1088,7 +1099,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
